--- a/biology/Botanique/Forêts_de_pins_pignons_et_genévriers/Forêts_de_pins_pignons_et_genévriers.xlsx
+++ b/biology/Botanique/Forêts_de_pins_pignons_et_genévriers/Forêts_de_pins_pignons_et_genévriers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_pins_pignons_et_gen%C3%A9vriers</t>
+          <t>Forêts_de_pins_pignons_et_genévriers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts de pins pignons et genévriers sont un type de végétation (biome) des  déserts d'altitude élevée, de l'Ouest des États-Unis, caractérisé par une forêt ouverte dominée par des Genévriers bas, touffus et persistants (Juniperus osteosperma[1],[2], Juniperus californica[2],[3], Juniperus grandis[3]), des Pins pignons (Pinus monophylla[2],[3],  Pinus edulis[2]), et des espèces associées qui varient d'une région à l'autre[1],[4],[5].
-La hauteur de la couronne de la forêt peut varier de moins de 10 mètres à 15 mètres, selon le site[6].
-Il peut s'agir de peuplements purs de pins pignons, ou de peuplements purs de genévriers[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts de pins pignons et genévriers sont un type de végétation (biome) des  déserts d'altitude élevée, de l'Ouest des États-Unis, caractérisé par une forêt ouverte dominée par des Genévriers bas, touffus et persistants (Juniperus osteosperma Juniperus californica Juniperus grandis), des Pins pignons (Pinus monophylla  Pinus edulis), et des espèces associées qui varient d'une région à l'autre.
+La hauteur de la couronne de la forêt peut varier de moins de 10 mètres à 15 mètres, selon le site.
+Il peut s'agir de peuplements purs de pins pignons, ou de peuplements purs de genévriers.
 </t>
         </is>
       </c>
